--- a/biology/Botanique/Eugène_Niel/Eugène_Niel.xlsx
+++ b/biology/Botanique/Eugène_Niel/Eugène_Niel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Niel</t>
+          <t>Eugène_Niel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Niel, né le 26 octobre 1836 à Rouen et mort le 17 mai 1905 au château du Houlley à Saint-Aubin-le-Vertueux, est un botaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Niel</t>
+          <t>Eugène_Niel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils et petit-fils de banquiers, Niel est très tôt entré dans les bureaux de son père qui désirait voir lui succéder. Néanmoins il mettait à profit tous ses temps de loisir pour travailler les sciences, les arts, les langues vivantes[a]. Particulièrement intéressé par l’histoire naturelle, il est devenu, par son travail opiniâtre, un botaniste distingué. Dès que son père, souffrant, s’est retiré des affaires, il l’a informé de son désir de consacrer son temps à l’étude de la botanique, de la mycologie et de la microscopie [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils et petit-fils de banquiers, Niel est très tôt entré dans les bureaux de son père qui désirait voir lui succéder. Néanmoins il mettait à profit tous ses temps de loisir pour travailler les sciences, les arts, les langues vivantes[a]. Particulièrement intéressé par l’histoire naturelle, il est devenu, par son travail opiniâtre, un botaniste distingué. Dès que son père, souffrant, s’est retiré des affaires, il l’a informé de son désir de consacrer son temps à l’étude de la botanique, de la mycologie et de la microscopie .
 Très ferme dans ses décisions, son père ayant dû s’incliner devant son désir, il a consacré le reste de sa vie à la recherche scientifique. Travailleur infatigable doté d’une mémoire exceptionnelle, il a enrichi l’histoire naturelle de découvertes importantes, faisant de nouvelles découvertes, spécialement parmi les innombrables espèces de cryptogames, dans les forêts de Normandie et les plaines du département de l’Eure. Consulté par nombre de botanistes lui envoyant des plantes, des champignons, afin d’avoir son avis si éclairé, l’un d’eux, par reconnaissance, a baptisé de son nom le champignon inconnu dont il avait reçu une analyse complète.
 Outre les végétaux phanérogames et cryptogames semivasculaires croissant en Normandie, il a étudié les champignons de cette région. C’est au cours de ses nombreuses herborisations qu’il a découvert, en Normandie, plusieurs espèces de champignons nouvelles pour la science, et dont les trois suivantes lui sont dédiées : Melanomma Nieli Roumeg., Phyllosticta nielana Roumeg. et Myxosporium nielanum Karst. et Roumeg. Il a également pris beaucoup d’intérêt aux bactéries et résumé ses recherches approfondies faites sur ces organismes dans un mémoire intitulé Recherches sur les bactéries, publié en 1884.
 Admis, en 1885, à l’Académie des sciences, belles-lettres et arts de Rouen, il a pris pour son discours de réception « L’histoire naturelle et le roman » comme sujet, pour s’élever contre les déductions hasardées, les utopies scientifiques dénaturant les théories et les faits scientifiques, et qu’il appelait « le romantisme dans la science ».
 Nommé vice-consul du Brésil, le 18 mai 1865, l’empereur Pierre II lui a donné « un témoignage public de sa considération impériale » en le nommant chevalier de l’Ordre de la Rose. Bien que dispensé de tout service militaire par son consulat, il a servi dans la garde nationale qui gardait la ville, lors de la Guerre franco-allemande de 1870. Les nuits qu’il a dû passer à la poudrière lui ont valu des atteintes de rhumatismes, qui lui ont peu à peu ôté l’usage de ses jambes, pour les dernières huit années de sa vie. Éloigné des réunions de l’Académie de Rouen, retiré à la campagne, cette institution, dont il avait été président en 1890, lui a conféré à titre exceptionnel la dignité de membre honoraire.
 Son érudition lui a valu d’appartenir à une trentaine de sociétés, non comme simple souscripteur, mais il suivait la plupart de leurs séances. Il a été président de l’Académie des sciences, belles-lettres et arts de Rouen, de la Société des Sciences naturelles de Rouen, du Conseil honoraire de l’Émulation chrétienne, de la Société civile des écoles paroissiales de Rouen, du Conseil de fabrique de Saint-Vincent, de Rouen, du Conseil de fabrique de Saint-Aubin-le-Vertueux et du Comité des fêtes de bienfaisance de Rouen. Il a été vice-président de la Société de la Croix-Rouge, de la Société protectrice de l’enfance, de l’Assistance aux convalescents. Il a été secrétaire de la Société artistique de Normandie, du Conseil des crèches.
 Il a, en outre, été membre de l’Association française pour l'avancement des sciences ; de la Société de secours aux Amis des Sciences ; de la Société botanique de France ; de la Société mycologique de France ; de la Société de l'histoire de Normandie ; de la Société normande de géographie ; de la Société des bibliophiles rouennais ; de la Société centrale d’Horticulture de la Seine-Inférieure ; de la Société de la Prévoyance mutuelle de Rouen ; de la Société des amis des arts de Rouen ; de la Société normande d'études préhistoriques ; de la Société linnéenne de Normandie ; de la Société libre d’Agriculture, Sciences et Arts de l’Eure ; de l’Association normande ; de la Société des agriculteurs de France ; de la Société des Chasseurs ; de la Société des sciences naturelles de l'Ouest de la France, à Nantes ; Membre correspondant de la Revue mycologique de Toulouse (pl). Il a publié, sur plus de vingt ans, de très nombreuses notes et mémoires[b].
-Le 23 mai 1905 mai, après un service célébré à Rouen, en l’église Saint-Vincent, il a été au Cimetière monumental de Rouen, où, selon sa volonté, nul discours n’a été prononcé[2]. Philippe Zacharie a fixé ses traits sur la planche lithographique.
+Le 23 mai 1905 mai, après un service célébré à Rouen, en l’église Saint-Vincent, il a été au Cimetière monumental de Rouen, où, selon sa volonté, nul discours n’a été prononcé. Philippe Zacharie a fixé ses traits sur la planche lithographique.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Niel</t>
+          <t>Eugène_Niel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Sur un cas de végétation remarquable du Bonapartea gracilis », Bulletin de la Société botanique de France, 1882, comptes-rendus des séances, p. 115.
 « Remarques sur l’Aira media Gouan », Bulletin de la Société des Amis des Sciences naturelles de Rouen, 2e sem. 1882, p. 415.
